--- a/source/burgerKing/src/main/resources/template/REV.xlsx
+++ b/source/burgerKing/src/main/resources/template/REV.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491">
   <si>
     <t>REV 自我评估</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>训练</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>维护保养</t>
@@ -2340,7 +2343,7 @@
   <dimension ref="A1:R90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:I12"/>
+      <selection activeCell="D14" sqref="D14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2673,7 +2676,9 @@
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="14"/>
+      <c r="D14" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="E14" s="7"/>
       <c r="F14" s="8"/>
       <c r="G14" s="14"/>
@@ -2691,7 +2696,7 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="15"/>
@@ -2713,7 +2718,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="15"/>
@@ -2735,7 +2740,7 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="15"/>
@@ -2766,35 +2771,35 @@
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
       <c r="O19" s="17"/>
       <c r="P19" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="17"/>
       <c r="R19" s="17"/>
     </row>
     <row r="20" ht="14.25" customHeight="1" spans="1:18">
       <c r="A20" s="18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
@@ -2802,35 +2807,35 @@
       <c r="F20" s="20"/>
       <c r="G20" s="21"/>
       <c r="H20" s="22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I20" s="32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J20" s="32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K20" s="32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L20" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M20" s="20"/>
       <c r="N20" s="20"/>
       <c r="O20" s="21"/>
       <c r="P20" s="33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q20" s="22"/>
       <c r="R20" s="22"/>
     </row>
     <row r="21" ht="16.5" spans="1:18">
       <c r="A21" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -2838,35 +2843,35 @@
       <c r="F21" s="20"/>
       <c r="G21" s="21"/>
       <c r="H21" s="22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I21" s="32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J21" s="32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K21" s="32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L21" s="19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M21" s="20"/>
       <c r="N21" s="20"/>
       <c r="O21" s="21"/>
       <c r="P21" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="22"/>
       <c r="R21" s="22"/>
     </row>
     <row r="22" ht="16.5" spans="1:18">
       <c r="A22" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
@@ -2874,35 +2879,35 @@
       <c r="F22" s="20"/>
       <c r="G22" s="21"/>
       <c r="H22" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I22" s="32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J22" s="32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K22" s="32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L22" s="19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M22" s="20"/>
       <c r="N22" s="20"/>
       <c r="O22" s="21"/>
       <c r="P22" s="33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q22" s="22"/>
       <c r="R22" s="22"/>
     </row>
     <row r="23" ht="16.5" spans="1:18">
       <c r="A23" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
@@ -2910,35 +2915,35 @@
       <c r="F23" s="20"/>
       <c r="G23" s="21"/>
       <c r="H23" s="22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J23" s="32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K23" s="32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L23" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M23" s="20"/>
       <c r="N23" s="20"/>
       <c r="O23" s="21"/>
       <c r="P23" s="33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q23" s="22"/>
       <c r="R23" s="22"/>
     </row>
     <row r="24" ht="16.5" spans="1:18">
       <c r="A24" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
@@ -2946,35 +2951,35 @@
       <c r="F24" s="20"/>
       <c r="G24" s="21"/>
       <c r="H24" s="22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I24" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J24" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K24" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L24" s="19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M24" s="20"/>
       <c r="N24" s="20"/>
       <c r="O24" s="21"/>
       <c r="P24" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q24" s="22"/>
       <c r="R24" s="22"/>
     </row>
     <row r="25" ht="16.5" spans="1:18">
       <c r="A25" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
@@ -2982,35 +2987,35 @@
       <c r="F25" s="20"/>
       <c r="G25" s="21"/>
       <c r="H25" s="22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I25" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J25" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K25" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M25" s="20"/>
       <c r="N25" s="20"/>
       <c r="O25" s="21"/>
       <c r="P25" s="33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q25" s="22"/>
       <c r="R25" s="22"/>
     </row>
     <row r="26" ht="16.5" spans="1:18">
       <c r="A26" s="18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
@@ -3018,25 +3023,25 @@
       <c r="F26" s="20"/>
       <c r="G26" s="21"/>
       <c r="H26" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I26" s="32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J26" s="32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K26" s="32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L26" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M26" s="20"/>
       <c r="N26" s="20"/>
       <c r="O26" s="21"/>
       <c r="P26" s="33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q26" s="22"/>
       <c r="R26" s="22"/>
@@ -3052,37 +3057,37 @@
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
       <c r="H28" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L28" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M28" s="34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N28" s="35"/>
       <c r="O28" s="35"/>
       <c r="P28" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q28" s="17"/>
       <c r="R28" s="17"/>
     </row>
     <row r="29" ht="16.5" spans="1:18">
       <c r="A29" s="18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
@@ -3090,37 +3095,37 @@
       <c r="F29" s="20"/>
       <c r="G29" s="21"/>
       <c r="H29" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L29" s="22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M29" s="24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N29" s="20"/>
       <c r="O29" s="21"/>
       <c r="P29" s="33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q29" s="22"/>
       <c r="R29" s="22"/>
     </row>
     <row r="30" ht="16.5" spans="1:18">
       <c r="A30" s="18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
@@ -3128,37 +3133,37 @@
       <c r="F30" s="20"/>
       <c r="G30" s="21"/>
       <c r="H30" s="22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L30" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M30" s="24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N30" s="20"/>
       <c r="O30" s="21"/>
       <c r="P30" s="33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q30" s="22"/>
       <c r="R30" s="22"/>
     </row>
     <row r="31" ht="16.5" spans="1:18">
       <c r="A31" s="18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
@@ -3166,37 +3171,37 @@
       <c r="F31" s="20"/>
       <c r="G31" s="21"/>
       <c r="H31" s="22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J31" s="22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L31" s="22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M31" s="24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N31" s="20"/>
       <c r="O31" s="21"/>
       <c r="P31" s="33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q31" s="22"/>
       <c r="R31" s="22"/>
     </row>
     <row r="32" ht="16.5" spans="1:18">
       <c r="A32" s="18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
@@ -3204,37 +3209,37 @@
       <c r="F32" s="20"/>
       <c r="G32" s="21"/>
       <c r="H32" s="22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J32" s="22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L32" s="22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M32" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N32" s="20"/>
       <c r="O32" s="21"/>
       <c r="P32" s="33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q32" s="22"/>
       <c r="R32" s="22"/>
     </row>
     <row r="33" ht="16.5" spans="1:18">
       <c r="A33" s="18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
@@ -3242,27 +3247,27 @@
       <c r="F33" s="20"/>
       <c r="G33" s="21"/>
       <c r="H33" s="22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L33" s="22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M33" s="24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N33" s="20"/>
       <c r="O33" s="21"/>
       <c r="P33" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q33" s="22"/>
       <c r="R33" s="22"/>
@@ -3278,37 +3283,37 @@
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
       <c r="H35" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I35" s="16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J35" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L35" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M35" s="34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N35" s="35"/>
       <c r="O35" s="35"/>
       <c r="P35" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q35" s="17"/>
       <c r="R35" s="17"/>
     </row>
     <row r="36" ht="16.5" spans="1:18">
       <c r="A36" s="18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
@@ -3316,37 +3321,37 @@
       <c r="F36" s="20"/>
       <c r="G36" s="21"/>
       <c r="H36" s="22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J36" s="22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K36" s="22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L36" s="22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M36" s="24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N36" s="20"/>
       <c r="O36" s="21"/>
       <c r="P36" s="33" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q36" s="22"/>
       <c r="R36" s="22"/>
     </row>
     <row r="37" ht="16.5" spans="1:18">
       <c r="A37" s="18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
@@ -3354,37 +3359,37 @@
       <c r="F37" s="20"/>
       <c r="G37" s="21"/>
       <c r="H37" s="22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I37" s="22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J37" s="22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K37" s="22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L37" s="22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M37" s="24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N37" s="20"/>
       <c r="O37" s="21"/>
       <c r="P37" s="33" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q37" s="22"/>
       <c r="R37" s="22"/>
     </row>
     <row r="38" ht="16.5" spans="1:18">
       <c r="A38" s="18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
@@ -3392,37 +3397,37 @@
       <c r="F38" s="20"/>
       <c r="G38" s="21"/>
       <c r="H38" s="22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J38" s="22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K38" s="22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L38" s="22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M38" s="24" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N38" s="20"/>
       <c r="O38" s="21"/>
       <c r="P38" s="33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q38" s="22"/>
       <c r="R38" s="22"/>
     </row>
     <row r="39" ht="16.5" spans="1:18">
       <c r="A39" s="18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
@@ -3430,37 +3435,37 @@
       <c r="F39" s="20"/>
       <c r="G39" s="21"/>
       <c r="H39" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I39" s="22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J39" s="22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K39" s="22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L39" s="22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M39" s="24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N39" s="20"/>
       <c r="O39" s="21"/>
       <c r="P39" s="33" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q39" s="22"/>
       <c r="R39" s="22"/>
     </row>
     <row r="40" ht="16.5" spans="1:18">
       <c r="A40" s="18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C40" s="20"/>
       <c r="D40" s="20"/>
@@ -3468,37 +3473,37 @@
       <c r="F40" s="20"/>
       <c r="G40" s="21"/>
       <c r="H40" s="22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I40" s="22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J40" s="22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K40" s="22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L40" s="22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M40" s="24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N40" s="20"/>
       <c r="O40" s="21"/>
       <c r="P40" s="33" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q40" s="22"/>
       <c r="R40" s="22"/>
     </row>
     <row r="41" ht="16.5" spans="1:18">
       <c r="A41" s="18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C41" s="20"/>
       <c r="D41" s="20"/>
@@ -3506,27 +3511,27 @@
       <c r="F41" s="20"/>
       <c r="G41" s="21"/>
       <c r="H41" s="22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J41" s="22" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K41" s="22" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L41" s="22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M41" s="24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N41" s="20"/>
       <c r="O41" s="21"/>
       <c r="P41" s="33" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q41" s="22"/>
       <c r="R41" s="22"/>
@@ -3542,35 +3547,35 @@
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
       <c r="H43" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J43" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K43" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L43" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M43" s="17"/>
       <c r="N43" s="17"/>
       <c r="O43" s="17"/>
       <c r="P43" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q43" s="17"/>
       <c r="R43" s="17"/>
     </row>
     <row r="44" ht="14.25" customHeight="1" spans="1:18">
       <c r="A44" s="18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
@@ -3578,35 +3583,35 @@
       <c r="F44" s="20"/>
       <c r="G44" s="21"/>
       <c r="H44" s="22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I44" s="32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J44" s="32" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K44" s="32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L44" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M44" s="20"/>
       <c r="N44" s="20"/>
       <c r="O44" s="21"/>
       <c r="P44" s="33" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q44" s="22"/>
       <c r="R44" s="22"/>
     </row>
     <row r="45" ht="16.5" spans="1:18">
       <c r="A45" s="18" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
@@ -3614,35 +3619,35 @@
       <c r="F45" s="20"/>
       <c r="G45" s="21"/>
       <c r="H45" s="22" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I45" s="32" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J45" s="32" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K45" s="32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L45" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M45" s="20"/>
       <c r="N45" s="20"/>
       <c r="O45" s="21"/>
       <c r="P45" s="33" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q45" s="22"/>
       <c r="R45" s="22"/>
     </row>
     <row r="46" ht="16.5" spans="1:18">
       <c r="A46" s="18" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
@@ -3650,35 +3655,35 @@
       <c r="F46" s="20"/>
       <c r="G46" s="21"/>
       <c r="H46" s="22" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I46" s="32" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J46" s="32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K46" s="32" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L46" s="19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M46" s="20"/>
       <c r="N46" s="20"/>
       <c r="O46" s="21"/>
       <c r="P46" s="33" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q46" s="22"/>
       <c r="R46" s="22"/>
     </row>
     <row r="47" ht="16.5" spans="1:18">
       <c r="A47" s="18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="20"/>
@@ -3686,35 +3691,35 @@
       <c r="F47" s="20"/>
       <c r="G47" s="21"/>
       <c r="H47" s="22" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I47" s="32" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J47" s="32" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K47" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L47" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M47" s="20"/>
       <c r="N47" s="20"/>
       <c r="O47" s="21"/>
       <c r="P47" s="33" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q47" s="22"/>
       <c r="R47" s="22"/>
     </row>
     <row r="48" ht="16.5" spans="1:18">
       <c r="A48" s="18" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C48" s="20"/>
       <c r="D48" s="20"/>
@@ -3722,35 +3727,35 @@
       <c r="F48" s="20"/>
       <c r="G48" s="21"/>
       <c r="H48" s="22" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I48" s="32" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J48" s="32" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K48" s="32" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L48" s="19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M48" s="20"/>
       <c r="N48" s="20"/>
       <c r="O48" s="21"/>
       <c r="P48" s="33" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q48" s="22"/>
       <c r="R48" s="22"/>
     </row>
     <row r="49" ht="16.5" spans="1:18">
       <c r="A49" s="18" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
@@ -3758,35 +3763,35 @@
       <c r="F49" s="20"/>
       <c r="G49" s="21"/>
       <c r="H49" s="22" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I49" s="32" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J49" s="32" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K49" s="32" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L49" s="19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M49" s="20"/>
       <c r="N49" s="20"/>
       <c r="O49" s="21"/>
       <c r="P49" s="33" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q49" s="22"/>
       <c r="R49" s="22"/>
     </row>
     <row r="50" ht="16.5" spans="1:18">
       <c r="A50" s="18" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
@@ -3794,35 +3799,35 @@
       <c r="F50" s="20"/>
       <c r="G50" s="21"/>
       <c r="H50" s="22" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I50" s="32" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J50" s="32" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K50" s="32" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L50" s="19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M50" s="20"/>
       <c r="N50" s="20"/>
       <c r="O50" s="21"/>
       <c r="P50" s="33" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q50" s="22"/>
       <c r="R50" s="22"/>
     </row>
     <row r="51" ht="16.5" spans="1:18">
       <c r="A51" s="18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
@@ -3830,25 +3835,25 @@
       <c r="F51" s="20"/>
       <c r="G51" s="21"/>
       <c r="H51" s="22" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I51" s="32" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J51" s="32" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K51" s="32" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L51" s="19" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M51" s="20"/>
       <c r="N51" s="20"/>
       <c r="O51" s="21"/>
       <c r="P51" s="33" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q51" s="22"/>
       <c r="R51" s="22"/>
@@ -3856,7 +3861,7 @@
     <row r="53" spans="1:18">
       <c r="A53" s="16"/>
       <c r="B53" s="16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
@@ -3864,35 +3869,35 @@
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
       <c r="H53" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I53" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J53" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K53" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L53" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M53" s="17"/>
       <c r="N53" s="17"/>
       <c r="O53" s="17"/>
       <c r="P53" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q53" s="17"/>
       <c r="R53" s="17"/>
     </row>
     <row r="54" ht="14.25" customHeight="1" spans="1:18">
       <c r="A54" s="18" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
@@ -3900,35 +3905,35 @@
       <c r="F54" s="20"/>
       <c r="G54" s="21"/>
       <c r="H54" s="22" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I54" s="32" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J54" s="32" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K54" s="32" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L54" s="19" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M54" s="20"/>
       <c r="N54" s="20"/>
       <c r="O54" s="21"/>
       <c r="P54" s="33" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q54" s="22"/>
       <c r="R54" s="22"/>
     </row>
     <row r="55" ht="16.5" spans="1:18">
       <c r="A55" s="18" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
@@ -3936,35 +3941,35 @@
       <c r="F55" s="20"/>
       <c r="G55" s="21"/>
       <c r="H55" s="22" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I55" s="32" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="J55" s="32" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K55" s="32" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L55" s="19" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M55" s="20"/>
       <c r="N55" s="20"/>
       <c r="O55" s="21"/>
       <c r="P55" s="33" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q55" s="22"/>
       <c r="R55" s="22"/>
     </row>
     <row r="56" ht="16.5" spans="1:18">
       <c r="A56" s="18" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
@@ -3972,35 +3977,35 @@
       <c r="F56" s="20"/>
       <c r="G56" s="21"/>
       <c r="H56" s="22" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I56" s="32" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J56" s="32" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K56" s="32" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L56" s="19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M56" s="20"/>
       <c r="N56" s="20"/>
       <c r="O56" s="21"/>
       <c r="P56" s="33" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q56" s="22"/>
       <c r="R56" s="22"/>
     </row>
     <row r="57" ht="16.5" spans="1:18">
       <c r="A57" s="18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C57" s="20"/>
       <c r="D57" s="20"/>
@@ -4008,35 +4013,35 @@
       <c r="F57" s="20"/>
       <c r="G57" s="21"/>
       <c r="H57" s="22" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I57" s="32" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J57" s="32" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K57" s="32" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L57" s="19" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M57" s="20"/>
       <c r="N57" s="20"/>
       <c r="O57" s="21"/>
       <c r="P57" s="33" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q57" s="22"/>
       <c r="R57" s="22"/>
     </row>
     <row r="58" ht="16.5" spans="1:18">
       <c r="A58" s="18" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C58" s="20"/>
       <c r="D58" s="20"/>
@@ -4044,25 +4049,25 @@
       <c r="F58" s="20"/>
       <c r="G58" s="21"/>
       <c r="H58" s="22" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I58" s="32" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J58" s="32" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K58" s="32" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L58" s="19" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M58" s="20"/>
       <c r="N58" s="20"/>
       <c r="O58" s="21"/>
       <c r="P58" s="33" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q58" s="22"/>
       <c r="R58" s="22"/>
@@ -4078,35 +4083,35 @@
       <c r="F60" s="17"/>
       <c r="G60" s="17"/>
       <c r="H60" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I60" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J60" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K60" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L60" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M60" s="17"/>
       <c r="N60" s="17"/>
       <c r="O60" s="17"/>
       <c r="P60" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q60" s="17"/>
       <c r="R60" s="17"/>
     </row>
     <row r="61" ht="14.25" customHeight="1" spans="1:18">
       <c r="A61" s="18" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
@@ -4114,35 +4119,35 @@
       <c r="F61" s="20"/>
       <c r="G61" s="21"/>
       <c r="H61" s="22" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I61" s="32" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J61" s="32" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K61" s="32" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L61" s="19" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M61" s="20"/>
       <c r="N61" s="20"/>
       <c r="O61" s="21"/>
       <c r="P61" s="33" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q61" s="22"/>
       <c r="R61" s="22"/>
     </row>
     <row r="62" ht="16.5" spans="1:18">
       <c r="A62" s="18" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C62" s="20"/>
       <c r="D62" s="20"/>
@@ -4150,35 +4155,35 @@
       <c r="F62" s="20"/>
       <c r="G62" s="21"/>
       <c r="H62" s="22" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I62" s="32" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="J62" s="32" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K62" s="32" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L62" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M62" s="20"/>
       <c r="N62" s="20"/>
       <c r="O62" s="21"/>
       <c r="P62" s="33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q62" s="22"/>
       <c r="R62" s="22"/>
     </row>
     <row r="63" ht="16.5" spans="1:18">
       <c r="A63" s="18" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C63" s="20"/>
       <c r="D63" s="20"/>
@@ -4186,35 +4191,35 @@
       <c r="F63" s="20"/>
       <c r="G63" s="21"/>
       <c r="H63" s="22" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I63" s="32" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J63" s="32" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K63" s="32" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L63" s="19" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M63" s="20"/>
       <c r="N63" s="20"/>
       <c r="O63" s="21"/>
       <c r="P63" s="33" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q63" s="22"/>
       <c r="R63" s="22"/>
     </row>
     <row r="64" ht="16.5" spans="1:18">
       <c r="A64" s="18" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C64" s="20"/>
       <c r="D64" s="20"/>
@@ -4222,35 +4227,35 @@
       <c r="F64" s="20"/>
       <c r="G64" s="21"/>
       <c r="H64" s="22" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I64" s="32" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J64" s="32" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K64" s="32" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L64" s="19" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M64" s="20"/>
       <c r="N64" s="20"/>
       <c r="O64" s="21"/>
       <c r="P64" s="33" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q64" s="22"/>
       <c r="R64" s="22"/>
     </row>
     <row r="65" ht="16.5" spans="1:18">
       <c r="A65" s="18" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C65" s="20"/>
       <c r="D65" s="20"/>
@@ -4258,25 +4263,25 @@
       <c r="F65" s="20"/>
       <c r="G65" s="21"/>
       <c r="H65" s="22" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I65" s="32" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J65" s="32" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K65" s="32" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L65" s="19" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M65" s="20"/>
       <c r="N65" s="20"/>
       <c r="O65" s="21"/>
       <c r="P65" s="33" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q65" s="22"/>
       <c r="R65" s="22"/>
@@ -4284,7 +4289,7 @@
     <row r="67" spans="1:18">
       <c r="A67" s="16"/>
       <c r="B67" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C67" s="17"/>
       <c r="D67" s="17"/>
@@ -4292,37 +4297,37 @@
       <c r="F67" s="17"/>
       <c r="G67" s="17"/>
       <c r="H67" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I67" s="16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J67" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K67" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L67" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M67" s="34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N67" s="35"/>
       <c r="O67" s="35"/>
       <c r="P67" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q67" s="17"/>
       <c r="R67" s="17"/>
     </row>
     <row r="68" ht="16.5" spans="1:18">
       <c r="A68" s="18" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C68" s="20"/>
       <c r="D68" s="20"/>
@@ -4330,37 +4335,37 @@
       <c r="F68" s="20"/>
       <c r="G68" s="21"/>
       <c r="H68" s="22" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I68" s="22" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J68" s="22" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K68" s="22" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L68" s="22" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M68" s="24" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N68" s="20"/>
       <c r="O68" s="21"/>
       <c r="P68" s="33" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q68" s="22"/>
       <c r="R68" s="22"/>
     </row>
     <row r="69" ht="16.5" spans="1:18">
       <c r="A69" s="18" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C69" s="20"/>
       <c r="D69" s="20"/>
@@ -4368,37 +4373,37 @@
       <c r="F69" s="20"/>
       <c r="G69" s="21"/>
       <c r="H69" s="22" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I69" s="22" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J69" s="22" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K69" s="22" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L69" s="22" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M69" s="24" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N69" s="20"/>
       <c r="O69" s="21"/>
       <c r="P69" s="33" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q69" s="22"/>
       <c r="R69" s="22"/>
     </row>
     <row r="70" ht="16.5" spans="1:18">
       <c r="A70" s="18" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C70" s="20"/>
       <c r="D70" s="20"/>
@@ -4406,37 +4411,37 @@
       <c r="F70" s="20"/>
       <c r="G70" s="21"/>
       <c r="H70" s="22" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I70" s="22" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="J70" s="22" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K70" s="22" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L70" s="22" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M70" s="24" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N70" s="20"/>
       <c r="O70" s="21"/>
       <c r="P70" s="33" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q70" s="22"/>
       <c r="R70" s="22"/>
     </row>
     <row r="71" ht="16.5" spans="1:18">
       <c r="A71" s="18" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C71" s="20"/>
       <c r="D71" s="20"/>
@@ -4444,37 +4449,37 @@
       <c r="F71" s="20"/>
       <c r="G71" s="21"/>
       <c r="H71" s="22" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I71" s="22" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J71" s="22" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K71" s="22" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L71" s="22" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M71" s="24" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N71" s="20"/>
       <c r="O71" s="21"/>
       <c r="P71" s="33" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q71" s="22"/>
       <c r="R71" s="22"/>
     </row>
     <row r="72" ht="16.5" spans="1:18">
       <c r="A72" s="18" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C72" s="20"/>
       <c r="D72" s="20"/>
@@ -4482,27 +4487,27 @@
       <c r="F72" s="20"/>
       <c r="G72" s="21"/>
       <c r="H72" s="22" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I72" s="22" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="J72" s="22" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K72" s="22" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L72" s="22" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M72" s="24" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N72" s="20"/>
       <c r="O72" s="21"/>
       <c r="P72" s="33" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q72" s="22"/>
       <c r="R72" s="22"/>
@@ -4510,7 +4515,7 @@
     <row r="74" spans="1:18">
       <c r="A74" s="16"/>
       <c r="B74" s="16" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C74" s="17"/>
       <c r="D74" s="17"/>
@@ -4518,35 +4523,35 @@
       <c r="F74" s="17"/>
       <c r="G74" s="17"/>
       <c r="H74" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I74" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J74" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K74" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L74" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M74" s="17"/>
       <c r="N74" s="17"/>
       <c r="O74" s="17"/>
       <c r="P74" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q74" s="17"/>
       <c r="R74" s="17"/>
     </row>
     <row r="75" ht="14.25" customHeight="1" spans="1:18">
       <c r="A75" s="18" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C75" s="20"/>
       <c r="D75" s="20"/>
@@ -4554,35 +4559,35 @@
       <c r="F75" s="20"/>
       <c r="G75" s="21"/>
       <c r="H75" s="22" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I75" s="32" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J75" s="32" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K75" s="32" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L75" s="19" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M75" s="20"/>
       <c r="N75" s="20"/>
       <c r="O75" s="21"/>
       <c r="P75" s="33" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q75" s="22"/>
       <c r="R75" s="22"/>
     </row>
     <row r="76" ht="16.5" spans="1:18">
       <c r="A76" s="18" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C76" s="20"/>
       <c r="D76" s="20"/>
@@ -4590,35 +4595,35 @@
       <c r="F76" s="20"/>
       <c r="G76" s="21"/>
       <c r="H76" s="22" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I76" s="32" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J76" s="32" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K76" s="32" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L76" s="19" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M76" s="20"/>
       <c r="N76" s="20"/>
       <c r="O76" s="21"/>
       <c r="P76" s="33" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q76" s="22"/>
       <c r="R76" s="22"/>
     </row>
     <row r="77" ht="16.5" spans="1:18">
       <c r="A77" s="18" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C77" s="20"/>
       <c r="D77" s="20"/>
@@ -4626,35 +4631,35 @@
       <c r="F77" s="20"/>
       <c r="G77" s="21"/>
       <c r="H77" s="22" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I77" s="32" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J77" s="32" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K77" s="32" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L77" s="19" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M77" s="20"/>
       <c r="N77" s="20"/>
       <c r="O77" s="21"/>
       <c r="P77" s="33" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q77" s="22"/>
       <c r="R77" s="22"/>
     </row>
     <row r="78" ht="16.5" spans="1:18">
       <c r="A78" s="18" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C78" s="20"/>
       <c r="D78" s="20"/>
@@ -4662,35 +4667,35 @@
       <c r="F78" s="20"/>
       <c r="G78" s="21"/>
       <c r="H78" s="22" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I78" s="32" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="J78" s="32" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K78" s="32" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L78" s="19" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M78" s="20"/>
       <c r="N78" s="20"/>
       <c r="O78" s="21"/>
       <c r="P78" s="33" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q78" s="22"/>
       <c r="R78" s="22"/>
     </row>
     <row r="79" ht="16.5" spans="1:18">
       <c r="A79" s="18" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C79" s="20"/>
       <c r="D79" s="20"/>
@@ -4698,35 +4703,35 @@
       <c r="F79" s="20"/>
       <c r="G79" s="21"/>
       <c r="H79" s="22" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I79" s="32" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="J79" s="32" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K79" s="32" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L79" s="19" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M79" s="20"/>
       <c r="N79" s="20"/>
       <c r="O79" s="21"/>
       <c r="P79" s="33" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q79" s="22"/>
       <c r="R79" s="22"/>
     </row>
     <row r="80" ht="16.5" spans="1:18">
       <c r="A80" s="18" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C80" s="20"/>
       <c r="D80" s="20"/>
@@ -4734,35 +4739,35 @@
       <c r="F80" s="20"/>
       <c r="G80" s="21"/>
       <c r="H80" s="22" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I80" s="32" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="J80" s="32" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K80" s="32" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L80" s="19" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M80" s="20"/>
       <c r="N80" s="20"/>
       <c r="O80" s="21"/>
       <c r="P80" s="33" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q80" s="22"/>
       <c r="R80" s="22"/>
     </row>
     <row r="81" ht="16.5" spans="1:18">
       <c r="A81" s="18" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C81" s="20"/>
       <c r="D81" s="20"/>
@@ -4770,35 +4775,35 @@
       <c r="F81" s="20"/>
       <c r="G81" s="21"/>
       <c r="H81" s="22" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="I81" s="32" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="J81" s="32" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K81" s="32" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L81" s="19" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M81" s="20"/>
       <c r="N81" s="20"/>
       <c r="O81" s="21"/>
       <c r="P81" s="33" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q81" s="22"/>
       <c r="R81" s="22"/>
     </row>
     <row r="82" ht="16.5" spans="1:18">
       <c r="A82" s="18" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C82" s="20"/>
       <c r="D82" s="20"/>
@@ -4806,35 +4811,35 @@
       <c r="F82" s="20"/>
       <c r="G82" s="21"/>
       <c r="H82" s="22" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I82" s="32" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="J82" s="32" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K82" s="32" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L82" s="19" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M82" s="20"/>
       <c r="N82" s="20"/>
       <c r="O82" s="21"/>
       <c r="P82" s="33" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q82" s="22"/>
       <c r="R82" s="22"/>
     </row>
     <row r="83" ht="16.5" spans="1:18">
       <c r="A83" s="18" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C83" s="20"/>
       <c r="D83" s="20"/>
@@ -4842,35 +4847,35 @@
       <c r="F83" s="20"/>
       <c r="G83" s="21"/>
       <c r="H83" s="22" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="I83" s="32" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="J83" s="32" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K83" s="32" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L83" s="19" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M83" s="20"/>
       <c r="N83" s="20"/>
       <c r="O83" s="21"/>
       <c r="P83" s="33" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q83" s="22"/>
       <c r="R83" s="22"/>
     </row>
     <row r="84" ht="16.5" spans="1:18">
       <c r="A84" s="18" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C84" s="20"/>
       <c r="D84" s="20"/>
@@ -4878,35 +4883,35 @@
       <c r="F84" s="20"/>
       <c r="G84" s="21"/>
       <c r="H84" s="22" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I84" s="32" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J84" s="32" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="K84" s="32" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L84" s="19" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M84" s="20"/>
       <c r="N84" s="20"/>
       <c r="O84" s="21"/>
       <c r="P84" s="33" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q84" s="22"/>
       <c r="R84" s="22"/>
     </row>
     <row r="85" ht="16.5" spans="1:18">
       <c r="A85" s="18" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B85" s="24" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C85" s="20"/>
       <c r="D85" s="20"/>
@@ -4914,35 +4919,35 @@
       <c r="F85" s="20"/>
       <c r="G85" s="21"/>
       <c r="H85" s="22" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I85" s="32" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="J85" s="32" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K85" s="32" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L85" s="19" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M85" s="20"/>
       <c r="N85" s="20"/>
       <c r="O85" s="21"/>
       <c r="P85" s="33" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q85" s="22"/>
       <c r="R85" s="22"/>
     </row>
     <row r="86" ht="16.5" spans="1:18">
       <c r="A86" s="18" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C86" s="20"/>
       <c r="D86" s="20"/>
@@ -4950,25 +4955,25 @@
       <c r="F86" s="20"/>
       <c r="G86" s="21"/>
       <c r="H86" s="22" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="I86" s="32" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="J86" s="32" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K86" s="32" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L86" s="19" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M86" s="20"/>
       <c r="N86" s="20"/>
       <c r="O86" s="21"/>
       <c r="P86" s="33" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Q86" s="22"/>
       <c r="R86" s="22"/>
@@ -4978,7 +4983,7 @@
       <c r="B88" s="44"/>
       <c r="C88" s="44"/>
       <c r="D88" s="45" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E88" s="44"/>
       <c r="F88" s="44"/>
@@ -4991,7 +4996,7 @@
       <c r="M88" s="44"/>
       <c r="N88" s="44"/>
       <c r="O88" s="45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P88" s="44"/>
       <c r="Q88" s="44"/>
@@ -4999,12 +5004,12 @@
     </row>
     <row r="89" ht="16.5" spans="1:18">
       <c r="A89" s="46" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B89" s="47"/>
       <c r="C89" s="47"/>
       <c r="D89" s="48" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E89" s="49"/>
       <c r="F89" s="49"/>
@@ -5017,7 +5022,7 @@
       <c r="M89" s="49"/>
       <c r="N89" s="52"/>
       <c r="O89" s="33" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P89" s="53"/>
       <c r="Q89" s="53"/>
@@ -5025,12 +5030,12 @@
     </row>
     <row r="90" ht="16.5" spans="1:18">
       <c r="A90" s="46" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B90" s="47"/>
       <c r="C90" s="47"/>
       <c r="D90" s="50" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E90" s="51"/>
       <c r="F90" s="51"/>
@@ -5043,7 +5048,7 @@
       <c r="M90" s="51"/>
       <c r="N90" s="54"/>
       <c r="O90" s="33" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="P90" s="53"/>
       <c r="Q90" s="53"/>

--- a/source/burgerKing/src/main/resources/template/REV.xlsx
+++ b/source/burgerKing/src/main/resources/template/REV.xlsx
@@ -130,9 +130,6 @@
     <t>${modules.youhao.questions.B01.testDetailInfo.fieldInfos.DESC}</t>
   </si>
   <si>
-    <t>&lt;jt:forEach copyRight="true" items="${modules.youhao.questions.B01.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1692,12 +1689,16 @@
     <t>${statis.resultP}</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>&lt;jt:forEach copyRight="true" items="${modules.youhao.questions.B01.testDetailInfo.evidence}" var="ev"&gt;&lt;jt:hyperlink type="url" address="${ev.address}" value="${ev.value}"/&gt;&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1773,6 +1774,22 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1968,7 +1985,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1993,6 +2010,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2095,28 +2115,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2567,486 +2587,486 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8:R17"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="50" t="s">
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53" t="s">
+      <c r="H3" s="52"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="43"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="50" t="s">
+      <c r="K3" s="44"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="51"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="53" t="s">
+      <c r="N3" s="52"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="45"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="53" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="45"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="54" t="s">
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="59"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="47" t="s">
+        <v>515</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="48" t="s">
         <v>516</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="47" t="s">
-        <v>517</v>
-      </c>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="50"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="42"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A8" s="42"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="39" t="s">
+      <c r="A8" s="46"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="39" t="s">
+      <c r="E8" s="41"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="39" t="s">
+      <c r="H8" s="41"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="40"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="39" t="s">
+      <c r="K8" s="41"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="40"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="20"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="21"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="45" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="43" t="s">
+        <v>480</v>
+      </c>
+      <c r="E9" s="44"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="43" t="s">
         <v>481</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45" t="s">
+      <c r="H9" s="44"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="43" t="s">
         <v>482</v>
       </c>
-      <c r="H9" s="43"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="45" t="s">
+      <c r="K9" s="44"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="43" t="s">
         <v>483</v>
       </c>
-      <c r="K9" s="43"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="45" t="s">
+      <c r="N9" s="44"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="24"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A10" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="43" t="s">
         <v>484</v>
       </c>
-      <c r="N9" s="43"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="23"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A10" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="45" t="s">
+      <c r="E10" s="44"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="43" t="s">
         <v>485</v>
       </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45" t="s">
+      <c r="H10" s="44"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="43" t="s">
         <v>486</v>
       </c>
-      <c r="H10" s="43"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="45" t="s">
+      <c r="K10" s="44"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="43" t="s">
         <v>487</v>
       </c>
-      <c r="K10" s="43"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="45" t="s">
+      <c r="N10" s="44"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="24"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A11" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43" t="s">
         <v>488</v>
       </c>
-      <c r="N10" s="43"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="23"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A11" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="45" t="s">
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="43" t="s">
         <v>489</v>
       </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="45" t="s">
+      <c r="H11" s="44"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="43" t="s">
         <v>490</v>
       </c>
-      <c r="H11" s="43"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="45" t="s">
+      <c r="K11" s="44"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="43" t="s">
         <v>491</v>
       </c>
-      <c r="K11" s="43"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="45" t="s">
+      <c r="N11" s="44"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="24"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A12" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43" t="s">
         <v>492</v>
       </c>
-      <c r="N11" s="43"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="23"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A12" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="45" t="s">
+      <c r="E12" s="44"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="43" t="s">
         <v>493</v>
       </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="45" t="s">
+      <c r="H12" s="44"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="43" t="s">
         <v>494</v>
       </c>
-      <c r="H12" s="43"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="45" t="s">
+      <c r="K12" s="44"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="43" t="s">
         <v>495</v>
       </c>
-      <c r="K12" s="43"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="45" t="s">
+      <c r="N12" s="44"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="24"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A13" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43" t="s">
         <v>496</v>
       </c>
-      <c r="N12" s="43"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="23"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A13" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="45" t="s">
+      <c r="E13" s="44"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="43" t="s">
         <v>497</v>
       </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45" t="s">
+      <c r="H13" s="44"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="43" t="s">
         <v>498</v>
       </c>
-      <c r="H13" s="43"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="45" t="s">
+      <c r="K13" s="44"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="43" t="s">
         <v>499</v>
       </c>
-      <c r="K13" s="43"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="45" t="s">
+      <c r="N13" s="44"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="24"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A14" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="43" t="s">
         <v>500</v>
       </c>
-      <c r="N13" s="43"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="23"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A14" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="45" t="s">
+      <c r="E14" s="44"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="43" t="s">
         <v>501</v>
       </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45" t="s">
+      <c r="H14" s="44"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="43" t="s">
         <v>502</v>
       </c>
-      <c r="H14" s="43"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="45" t="s">
+      <c r="K14" s="44"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="43" t="s">
         <v>503</v>
       </c>
-      <c r="K14" s="43"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="45" t="s">
+      <c r="N14" s="44"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="24"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A15" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="43" t="s">
         <v>504</v>
       </c>
-      <c r="N14" s="43"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="23"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A15" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="45" t="s">
+      <c r="E15" s="44"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="43" t="s">
         <v>505</v>
       </c>
-      <c r="E15" s="43"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="45" t="s">
+      <c r="H15" s="44"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="43" t="s">
         <v>506</v>
       </c>
-      <c r="H15" s="43"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="45" t="s">
+      <c r="K15" s="44"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="43" t="s">
         <v>507</v>
       </c>
-      <c r="K15" s="43"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="45" t="s">
+      <c r="N15" s="44"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="24"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A16" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="43" t="s">
         <v>508</v>
       </c>
-      <c r="N15" s="43"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="23"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A16" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="45" t="s">
+      <c r="E16" s="44"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="43" t="s">
         <v>509</v>
       </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="45" t="s">
+      <c r="H16" s="44"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="43" t="s">
         <v>510</v>
       </c>
-      <c r="H16" s="43"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="45" t="s">
+      <c r="K16" s="44"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="43" t="s">
         <v>511</v>
       </c>
-      <c r="K16" s="43"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="45" t="s">
+      <c r="N16" s="44"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="24"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A17" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="43" t="s">
         <v>512</v>
       </c>
-      <c r="N16" s="43"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="23"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A17" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="45" t="s">
+      <c r="E17" s="44"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="46" t="s">
+        <v>514</v>
+      </c>
+      <c r="K17" s="44"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="46" t="s">
         <v>513</v>
       </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="42" t="s">
-        <v>515</v>
-      </c>
-      <c r="K17" s="43"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="42" t="s">
-        <v>514</v>
-      </c>
-      <c r="N17" s="43"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="26"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="27"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="1" t="s">
         <v>25</v>
       </c>
@@ -3059,32 +3079,32 @@
       <c r="K19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L19" s="33" t="s">
+      <c r="L19" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="33" t="s">
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
     </row>
     <row r="20" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
       <c r="H20" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>33</v>
@@ -3093,251 +3113,251 @@
         <v>34</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="L20" s="30" t="s">
+        <v>469</v>
+      </c>
+      <c r="L20" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="5" t="s">
-        <v>36</v>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="8" t="s">
+        <v>517</v>
       </c>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
     </row>
     <row r="21" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="I21" s="4" t="s">
+      <c r="J21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="K21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="L21" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="L21" s="30" t="s">
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
     </row>
     <row r="22" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="J22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="K22" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="L22" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="L22" s="30" t="s">
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
     </row>
     <row r="23" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="3" t="s">
+      <c r="I23" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="J23" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="K23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="L23" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="L23" s="30" t="s">
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
     </row>
     <row r="24" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="J24" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="K24" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="L24" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="L24" s="30" t="s">
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
     </row>
     <row r="25" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="J25" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="K25" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="L25" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="L25" s="30" t="s">
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
     </row>
     <row r="26" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="J26" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="K26" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="L26" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="L26" s="30" t="s">
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
       <c r="H28" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>26</v>
@@ -3348,222 +3368,222 @@
       <c r="L28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M28" s="35" t="s">
+      <c r="M28" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="33" t="s">
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="34"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
     </row>
     <row r="29" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="7" t="s">
+      <c r="J29" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="M29" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="L29" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="M29" s="27" t="s">
+      <c r="N29" s="29"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="N29" s="28"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
     </row>
     <row r="30" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="J30" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="L30" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="M30" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="M30" s="27" t="s">
+      <c r="N30" s="29"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="N30" s="28"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
     </row>
     <row r="31" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="J31" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="K31" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="L31" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="M31" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="M31" s="27" t="s">
+      <c r="N31" s="29"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="N31" s="28"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
     </row>
     <row r="32" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="3" t="s">
+      <c r="I32" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="J32" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="K32" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="L32" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="M32" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="M32" s="27" t="s">
+      <c r="N32" s="29"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="N32" s="28"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
     </row>
     <row r="33" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="3" t="s">
+      <c r="I33" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="J33" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="K33" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="L33" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="M33" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="M33" s="27" t="s">
+      <c r="N33" s="29"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="N33" s="28"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
       <c r="H35" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>26</v>
@@ -3574,255 +3594,255 @@
       <c r="L35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M35" s="35" t="s">
+      <c r="M35" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="33" t="s">
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="Q35" s="34"/>
-      <c r="R35" s="34"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
     </row>
     <row r="36" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="I36" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="7" t="s">
+      <c r="J36" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="M36" s="38" t="s">
         <v>473</v>
       </c>
-      <c r="I36" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="K36" s="3" t="s">
+      <c r="N36" s="29"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="M36" s="37" t="s">
-        <v>474</v>
-      </c>
-      <c r="N36" s="28"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
     </row>
     <row r="37" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="3" t="s">
+      <c r="I37" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="J37" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="K37" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="L37" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="M37" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="M37" s="27" t="s">
+      <c r="N37" s="29"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="N37" s="28"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
     </row>
     <row r="38" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="B38" s="27" t="s">
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="3" t="s">
+      <c r="I38" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="J38" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="K38" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="L38" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="M38" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="M38" s="27" t="s">
+      <c r="N38" s="29"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="N38" s="28"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
     </row>
     <row r="39" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="3" t="s">
+      <c r="I39" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="J39" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="K39" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="L39" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="M39" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="M39" s="27" t="s">
+      <c r="N39" s="29"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="N39" s="28"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="5" t="s">
-        <v>160</v>
       </c>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
     </row>
     <row r="40" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B40" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="B40" s="27" t="s">
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="3" t="s">
+      <c r="I40" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="J40" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="K40" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="L40" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="L40" s="3" t="s">
+      <c r="M40" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="M40" s="27" t="s">
+      <c r="N40" s="29"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="N40" s="28"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
     </row>
     <row r="41" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B41" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="B41" s="27" t="s">
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="3" t="s">
+      <c r="I41" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="J41" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="K41" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="L41" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="M41" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="M41" s="27" t="s">
+      <c r="N41" s="29"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="N41" s="28"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
       <c r="H43" s="1" t="s">
         <v>25</v>
       </c>
@@ -3835,316 +3855,316 @@
       <c r="K43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L43" s="33" t="s">
+      <c r="L43" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="M43" s="34"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="34"/>
-      <c r="P43" s="33" t="s">
+      <c r="M43" s="35"/>
+      <c r="N43" s="35"/>
+      <c r="O43" s="35"/>
+      <c r="P43" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="34"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="35"/>
     </row>
     <row r="44" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B44" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="B44" s="27" t="s">
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="I44" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="7" t="s">
+      <c r="J44" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="I44" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="J44" s="4" t="s">
+      <c r="L44" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="K44" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="L44" s="30" t="s">
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="29"/>
-      <c r="P44" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
     </row>
     <row r="45" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B45" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="B45" s="27" t="s">
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="3" t="s">
+      <c r="I45" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="J45" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="J45" s="4" t="s">
+      <c r="K45" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="K45" s="4" t="s">
+      <c r="L45" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="L45" s="30" t="s">
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="5" t="s">
-        <v>192</v>
       </c>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
     </row>
     <row r="46" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B46" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="B46" s="27" t="s">
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="3" t="s">
+      <c r="I46" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="J46" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="J46" s="4" t="s">
+      <c r="K46" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="K46" s="4" t="s">
+      <c r="L46" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="L46" s="30" t="s">
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="29"/>
-      <c r="P46" s="5" t="s">
-        <v>200</v>
       </c>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
     </row>
     <row r="47" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B47" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="3" t="s">
+      <c r="I47" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="J47" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="J47" s="4" t="s">
+      <c r="K47" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="K47" s="4" t="s">
+      <c r="L47" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="L47" s="30" t="s">
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="M47" s="28"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="5" t="s">
-        <v>208</v>
       </c>
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
     </row>
     <row r="48" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B48" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="B48" s="27" t="s">
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="3" t="s">
+      <c r="I48" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="J48" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="J48" s="4" t="s">
+      <c r="K48" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="K48" s="4" t="s">
+      <c r="L48" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="L48" s="30" t="s">
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="M48" s="28"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="29"/>
-      <c r="P48" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
     </row>
     <row r="49" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B49" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="B49" s="27" t="s">
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="3" t="s">
+      <c r="I49" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="J49" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="J49" s="4" t="s">
+      <c r="K49" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="K49" s="4" t="s">
+      <c r="L49" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="L49" s="30" t="s">
+      <c r="M49" s="29"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="29"/>
-      <c r="P49" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
     </row>
     <row r="50" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B50" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="B50" s="27" t="s">
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="3" t="s">
+      <c r="I50" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="J50" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="J50" s="4" t="s">
+      <c r="K50" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="K50" s="4" t="s">
+      <c r="L50" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="L50" s="30" t="s">
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="30"/>
+      <c r="P50" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="M50" s="28"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="29"/>
-      <c r="P50" s="5" t="s">
-        <v>232</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
     </row>
     <row r="51" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B51" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="B51" s="27" t="s">
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="3" t="s">
+      <c r="I51" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="J51" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="J51" s="4" t="s">
+      <c r="K51" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="K51" s="4" t="s">
+      <c r="L51" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="L51" s="30" t="s">
+      <c r="M51" s="29"/>
+      <c r="N51" s="29"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="5" t="s">
         <v>239</v>
-      </c>
-      <c r="M51" s="28"/>
-      <c r="N51" s="28"/>
-      <c r="O51" s="29"/>
-      <c r="P51" s="5" t="s">
-        <v>240</v>
       </c>
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
-      <c r="B53" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
+      <c r="B53" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
       <c r="H53" s="1" t="s">
         <v>25</v>
       </c>
@@ -4157,208 +4177,208 @@
       <c r="K53" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L53" s="33" t="s">
+      <c r="L53" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="M53" s="34"/>
-      <c r="N53" s="34"/>
-      <c r="O53" s="34"/>
-      <c r="P53" s="33" t="s">
+      <c r="M53" s="35"/>
+      <c r="N53" s="35"/>
+      <c r="O53" s="35"/>
+      <c r="P53" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="Q53" s="34"/>
-      <c r="R53" s="34"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="35"/>
     </row>
     <row r="54" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B54" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="B54" s="27" t="s">
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="I54" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="I54" s="4" t="s">
+      <c r="J54" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J54" s="4" t="s">
+      <c r="K54" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="K54" s="4" t="s">
+      <c r="L54" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="L54" s="30" t="s">
+      <c r="M54" s="29"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="M54" s="28"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="29"/>
-      <c r="P54" s="5" t="s">
-        <v>248</v>
       </c>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
     </row>
     <row r="55" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B55" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="B55" s="27" t="s">
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="3" t="s">
+      <c r="I55" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="I55" s="4" t="s">
+      <c r="J55" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="J55" s="4" t="s">
+      <c r="K55" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="K55" s="4" t="s">
+      <c r="L55" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="L55" s="30" t="s">
+      <c r="M55" s="29"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="5" t="s">
         <v>255</v>
-      </c>
-      <c r="M55" s="28"/>
-      <c r="N55" s="28"/>
-      <c r="O55" s="29"/>
-      <c r="P55" s="5" t="s">
-        <v>256</v>
       </c>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
     </row>
     <row r="56" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B56" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="B56" s="27" t="s">
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="3" t="s">
+      <c r="I56" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="I56" s="4" t="s">
+      <c r="J56" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="J56" s="4" t="s">
+      <c r="K56" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="K56" s="4" t="s">
+      <c r="L56" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="L56" s="30" t="s">
+      <c r="M56" s="29"/>
+      <c r="N56" s="29"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="M56" s="28"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="29"/>
-      <c r="P56" s="5" t="s">
-        <v>264</v>
       </c>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
     </row>
     <row r="57" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B57" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="B57" s="27" t="s">
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="3" t="s">
+      <c r="I57" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="I57" s="4" t="s">
+      <c r="J57" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="J57" s="4" t="s">
+      <c r="K57" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="K57" s="4" t="s">
+      <c r="L57" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="L57" s="30" t="s">
+      <c r="M57" s="29"/>
+      <c r="N57" s="29"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="M57" s="28"/>
-      <c r="N57" s="28"/>
-      <c r="O57" s="29"/>
-      <c r="P57" s="5" t="s">
-        <v>272</v>
       </c>
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
     </row>
     <row r="58" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B58" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="B58" s="27" t="s">
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="3" t="s">
+      <c r="I58" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="I58" s="4" t="s">
+      <c r="J58" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="J58" s="4" t="s">
+      <c r="K58" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="K58" s="4" t="s">
+      <c r="L58" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="L58" s="30" t="s">
+      <c r="M58" s="29"/>
+      <c r="N58" s="29"/>
+      <c r="O58" s="30"/>
+      <c r="P58" s="5" t="s">
         <v>279</v>
-      </c>
-      <c r="M58" s="28"/>
-      <c r="N58" s="28"/>
-      <c r="O58" s="29"/>
-      <c r="P58" s="5" t="s">
-        <v>280</v>
       </c>
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
-      <c r="B60" s="33" t="s">
+      <c r="B60" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
       <c r="H60" s="1" t="s">
         <v>25</v>
       </c>
@@ -4371,213 +4391,213 @@
       <c r="K60" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L60" s="33" t="s">
+      <c r="L60" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="M60" s="34"/>
-      <c r="N60" s="34"/>
-      <c r="O60" s="34"/>
-      <c r="P60" s="33" t="s">
+      <c r="M60" s="35"/>
+      <c r="N60" s="35"/>
+      <c r="O60" s="35"/>
+      <c r="P60" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="Q60" s="34"/>
-      <c r="R60" s="34"/>
+      <c r="Q60" s="35"/>
+      <c r="R60" s="35"/>
     </row>
     <row r="61" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B61" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="B61" s="27" t="s">
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="I61" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="I61" s="4" t="s">
+      <c r="J61" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="J61" s="4" t="s">
+      <c r="K61" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="K61" s="4" t="s">
+      <c r="L61" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="L61" s="30" t="s">
+      <c r="M61" s="29"/>
+      <c r="N61" s="29"/>
+      <c r="O61" s="30"/>
+      <c r="P61" s="5" t="s">
         <v>286</v>
-      </c>
-      <c r="M61" s="28"/>
-      <c r="N61" s="28"/>
-      <c r="O61" s="29"/>
-      <c r="P61" s="5" t="s">
-        <v>287</v>
       </c>
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
     </row>
     <row r="62" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B62" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="B62" s="27" t="s">
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="3" t="s">
+      <c r="I62" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="I62" s="4" t="s">
+      <c r="J62" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="J62" s="4" t="s">
+      <c r="K62" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="K62" s="4" t="s">
+      <c r="L62" s="31" t="s">
         <v>293</v>
       </c>
-      <c r="L62" s="30" t="s">
+      <c r="M62" s="29"/>
+      <c r="N62" s="29"/>
+      <c r="O62" s="30"/>
+      <c r="P62" s="5" t="s">
         <v>294</v>
-      </c>
-      <c r="M62" s="28"/>
-      <c r="N62" s="28"/>
-      <c r="O62" s="29"/>
-      <c r="P62" s="5" t="s">
-        <v>295</v>
       </c>
       <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
     </row>
     <row r="63" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B63" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="B63" s="27" t="s">
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="3" t="s">
+      <c r="I63" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="I63" s="4" t="s">
+      <c r="J63" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="J63" s="4" t="s">
+      <c r="K63" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="K63" s="4" t="s">
+      <c r="L63" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="L63" s="30" t="s">
+      <c r="M63" s="29"/>
+      <c r="N63" s="29"/>
+      <c r="O63" s="30"/>
+      <c r="P63" s="5" t="s">
         <v>302</v>
-      </c>
-      <c r="M63" s="28"/>
-      <c r="N63" s="28"/>
-      <c r="O63" s="29"/>
-      <c r="P63" s="5" t="s">
-        <v>303</v>
       </c>
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
     </row>
     <row r="64" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B64" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="B64" s="27" t="s">
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="3" t="s">
+      <c r="I64" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="I64" s="4" t="s">
+      <c r="J64" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="J64" s="4" t="s">
+      <c r="K64" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="K64" s="4" t="s">
+      <c r="L64" s="31" t="s">
         <v>309</v>
       </c>
-      <c r="L64" s="30" t="s">
+      <c r="M64" s="29"/>
+      <c r="N64" s="29"/>
+      <c r="O64" s="30"/>
+      <c r="P64" s="5" t="s">
         <v>310</v>
-      </c>
-      <c r="M64" s="28"/>
-      <c r="N64" s="28"/>
-      <c r="O64" s="29"/>
-      <c r="P64" s="5" t="s">
-        <v>311</v>
       </c>
       <c r="Q64" s="3"/>
       <c r="R64" s="3"/>
     </row>
     <row r="65" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B65" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="B65" s="27" t="s">
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="3" t="s">
+      <c r="I65" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="I65" s="4" t="s">
+      <c r="J65" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="J65" s="4" t="s">
+      <c r="K65" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="K65" s="4" t="s">
+      <c r="L65" s="31" t="s">
         <v>317</v>
       </c>
-      <c r="L65" s="30" t="s">
+      <c r="M65" s="29"/>
+      <c r="N65" s="29"/>
+      <c r="O65" s="30"/>
+      <c r="P65" s="5" t="s">
         <v>318</v>
-      </c>
-      <c r="M65" s="28"/>
-      <c r="N65" s="28"/>
-      <c r="O65" s="29"/>
-      <c r="P65" s="5" t="s">
-        <v>319</v>
       </c>
       <c r="Q65" s="3"/>
       <c r="R65" s="3"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
-      <c r="B67" s="33" t="s">
+      <c r="B67" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C67" s="34"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="34"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
       <c r="H67" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>26</v>
@@ -4588,217 +4608,217 @@
       <c r="L67" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M67" s="35" t="s">
+      <c r="M67" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="N67" s="36"/>
-      <c r="O67" s="36"/>
-      <c r="P67" s="33" t="s">
+      <c r="N67" s="37"/>
+      <c r="O67" s="37"/>
+      <c r="P67" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="Q67" s="34"/>
-      <c r="R67" s="34"/>
+      <c r="Q67" s="35"/>
+      <c r="R67" s="35"/>
     </row>
     <row r="68" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B68" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="B68" s="27" t="s">
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="I68" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="I68" s="3" t="s">
+      <c r="J68" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="J68" s="3" t="s">
+      <c r="K68" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="K68" s="3" t="s">
+      <c r="L68" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="L68" s="3" t="s">
+      <c r="M68" s="28" t="s">
         <v>325</v>
       </c>
-      <c r="M68" s="27" t="s">
+      <c r="N68" s="29"/>
+      <c r="O68" s="30"/>
+      <c r="P68" s="5" t="s">
         <v>326</v>
-      </c>
-      <c r="N68" s="28"/>
-      <c r="O68" s="29"/>
-      <c r="P68" s="5" t="s">
-        <v>327</v>
       </c>
       <c r="Q68" s="3"/>
       <c r="R68" s="3"/>
     </row>
     <row r="69" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B69" s="28" t="s">
         <v>328</v>
       </c>
-      <c r="B69" s="27" t="s">
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="3" t="s">
+      <c r="I69" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="I69" s="3" t="s">
+      <c r="J69" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="J69" s="3" t="s">
+      <c r="K69" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="K69" s="3" t="s">
+      <c r="L69" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="L69" s="3" t="s">
+      <c r="M69" s="28" t="s">
         <v>334</v>
       </c>
-      <c r="M69" s="27" t="s">
+      <c r="N69" s="29"/>
+      <c r="O69" s="30"/>
+      <c r="P69" s="5" t="s">
         <v>335</v>
-      </c>
-      <c r="N69" s="28"/>
-      <c r="O69" s="29"/>
-      <c r="P69" s="5" t="s">
-        <v>336</v>
       </c>
       <c r="Q69" s="3"/>
       <c r="R69" s="3"/>
     </row>
     <row r="70" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B70" s="28" t="s">
         <v>337</v>
       </c>
-      <c r="B70" s="27" t="s">
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="3" t="s">
+      <c r="I70" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="I70" s="3" t="s">
+      <c r="J70" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="J70" s="3" t="s">
+      <c r="K70" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="K70" s="3" t="s">
+      <c r="L70" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="L70" s="3" t="s">
+      <c r="M70" s="28" t="s">
         <v>343</v>
       </c>
-      <c r="M70" s="27" t="s">
+      <c r="N70" s="29"/>
+      <c r="O70" s="30"/>
+      <c r="P70" s="5" t="s">
         <v>344</v>
-      </c>
-      <c r="N70" s="28"/>
-      <c r="O70" s="29"/>
-      <c r="P70" s="5" t="s">
-        <v>345</v>
       </c>
       <c r="Q70" s="3"/>
       <c r="R70" s="3"/>
     </row>
     <row r="71" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B71" s="28" t="s">
         <v>346</v>
       </c>
-      <c r="B71" s="27" t="s">
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="3" t="s">
+      <c r="I71" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="I71" s="3" t="s">
+      <c r="J71" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="J71" s="3" t="s">
+      <c r="K71" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="K71" s="3" t="s">
+      <c r="L71" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="L71" s="3" t="s">
+      <c r="M71" s="28" t="s">
         <v>352</v>
       </c>
-      <c r="M71" s="27" t="s">
+      <c r="N71" s="29"/>
+      <c r="O71" s="30"/>
+      <c r="P71" s="5" t="s">
         <v>353</v>
-      </c>
-      <c r="N71" s="28"/>
-      <c r="O71" s="29"/>
-      <c r="P71" s="5" t="s">
-        <v>354</v>
       </c>
       <c r="Q71" s="3"/>
       <c r="R71" s="3"/>
     </row>
     <row r="72" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B72" s="28" t="s">
         <v>355</v>
       </c>
-      <c r="B72" s="27" t="s">
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="3" t="s">
+      <c r="I72" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="I72" s="3" t="s">
+      <c r="J72" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="J72" s="3" t="s">
+      <c r="K72" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="K72" s="3" t="s">
+      <c r="L72" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="L72" s="3" t="s">
+      <c r="M72" s="28" t="s">
         <v>361</v>
       </c>
-      <c r="M72" s="27" t="s">
+      <c r="N72" s="29"/>
+      <c r="O72" s="30"/>
+      <c r="P72" s="5" t="s">
         <v>362</v>
-      </c>
-      <c r="N72" s="28"/>
-      <c r="O72" s="29"/>
-      <c r="P72" s="5" t="s">
-        <v>363</v>
       </c>
       <c r="Q72" s="3"/>
       <c r="R72" s="3"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A74" s="1"/>
-      <c r="B74" s="33" t="s">
-        <v>364</v>
-      </c>
-      <c r="C74" s="34"/>
-      <c r="D74" s="34"/>
-      <c r="E74" s="34"/>
-      <c r="F74" s="34"/>
-      <c r="G74" s="34"/>
+      <c r="B74" s="34" t="s">
+        <v>363</v>
+      </c>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="35"/>
       <c r="H74" s="1" t="s">
         <v>25</v>
       </c>
@@ -4811,521 +4831,521 @@
       <c r="K74" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L74" s="33" t="s">
+      <c r="L74" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="M74" s="34"/>
-      <c r="N74" s="34"/>
-      <c r="O74" s="34"/>
-      <c r="P74" s="33" t="s">
+      <c r="M74" s="35"/>
+      <c r="N74" s="35"/>
+      <c r="O74" s="35"/>
+      <c r="P74" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="Q74" s="34"/>
-      <c r="R74" s="34"/>
+      <c r="Q74" s="35"/>
+      <c r="R74" s="35"/>
     </row>
     <row r="75" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B75" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="B75" s="27" t="s">
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="29"/>
-      <c r="H75" s="3" t="s">
+      <c r="I75" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="I75" s="4" t="s">
+      <c r="J75" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="J75" s="4" t="s">
+      <c r="K75" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="K75" s="4" t="s">
+      <c r="L75" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="L75" s="30" t="s">
+      <c r="M75" s="29"/>
+      <c r="N75" s="29"/>
+      <c r="O75" s="30"/>
+      <c r="P75" s="5" t="s">
         <v>371</v>
-      </c>
-      <c r="M75" s="28"/>
-      <c r="N75" s="28"/>
-      <c r="O75" s="29"/>
-      <c r="P75" s="5" t="s">
-        <v>372</v>
       </c>
       <c r="Q75" s="3"/>
       <c r="R75" s="3"/>
     </row>
     <row r="76" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B76" s="28" t="s">
         <v>373</v>
       </c>
-      <c r="B76" s="27" t="s">
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="3" t="s">
+      <c r="I76" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="I76" s="4" t="s">
+      <c r="J76" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="J76" s="4" t="s">
+      <c r="K76" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="K76" s="4" t="s">
+      <c r="L76" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="L76" s="30" t="s">
+      <c r="M76" s="29"/>
+      <c r="N76" s="29"/>
+      <c r="O76" s="30"/>
+      <c r="P76" s="5" t="s">
         <v>379</v>
-      </c>
-      <c r="M76" s="28"/>
-      <c r="N76" s="28"/>
-      <c r="O76" s="29"/>
-      <c r="P76" s="5" t="s">
-        <v>380</v>
       </c>
       <c r="Q76" s="3"/>
       <c r="R76" s="3"/>
     </row>
     <row r="77" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B77" s="28" t="s">
         <v>381</v>
       </c>
-      <c r="B77" s="27" t="s">
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="3" t="s">
+      <c r="I77" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="I77" s="4" t="s">
+      <c r="J77" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="J77" s="4" t="s">
+      <c r="K77" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="K77" s="4" t="s">
+      <c r="L77" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="L77" s="30" t="s">
+      <c r="M77" s="29"/>
+      <c r="N77" s="29"/>
+      <c r="O77" s="30"/>
+      <c r="P77" s="5" t="s">
         <v>387</v>
-      </c>
-      <c r="M77" s="28"/>
-      <c r="N77" s="28"/>
-      <c r="O77" s="29"/>
-      <c r="P77" s="5" t="s">
-        <v>388</v>
       </c>
       <c r="Q77" s="3"/>
       <c r="R77" s="3"/>
     </row>
     <row r="78" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B78" s="28" t="s">
         <v>389</v>
       </c>
-      <c r="B78" s="27" t="s">
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="3" t="s">
+      <c r="I78" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="I78" s="4" t="s">
+      <c r="J78" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="J78" s="4" t="s">
+      <c r="K78" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="K78" s="4" t="s">
+      <c r="L78" s="31" t="s">
         <v>394</v>
       </c>
-      <c r="L78" s="30" t="s">
+      <c r="M78" s="29"/>
+      <c r="N78" s="29"/>
+      <c r="O78" s="30"/>
+      <c r="P78" s="5" t="s">
         <v>395</v>
-      </c>
-      <c r="M78" s="28"/>
-      <c r="N78" s="28"/>
-      <c r="O78" s="29"/>
-      <c r="P78" s="5" t="s">
-        <v>396</v>
       </c>
       <c r="Q78" s="3"/>
       <c r="R78" s="3"/>
     </row>
     <row r="79" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B79" s="28" t="s">
         <v>397</v>
       </c>
-      <c r="B79" s="27" t="s">
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="3" t="s">
+      <c r="I79" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="I79" s="4" t="s">
+      <c r="J79" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="J79" s="4" t="s">
+      <c r="K79" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="K79" s="4" t="s">
+      <c r="L79" s="31" t="s">
         <v>402</v>
       </c>
-      <c r="L79" s="30" t="s">
+      <c r="M79" s="29"/>
+      <c r="N79" s="29"/>
+      <c r="O79" s="30"/>
+      <c r="P79" s="5" t="s">
         <v>403</v>
-      </c>
-      <c r="M79" s="28"/>
-      <c r="N79" s="28"/>
-      <c r="O79" s="29"/>
-      <c r="P79" s="5" t="s">
-        <v>404</v>
       </c>
       <c r="Q79" s="3"/>
       <c r="R79" s="3"/>
     </row>
     <row r="80" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B80" s="28" t="s">
         <v>405</v>
       </c>
-      <c r="B80" s="27" t="s">
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="3" t="s">
+      <c r="I80" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="I80" s="4" t="s">
+      <c r="J80" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="J80" s="4" t="s">
+      <c r="K80" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="K80" s="4" t="s">
+      <c r="L80" s="31" t="s">
         <v>410</v>
       </c>
-      <c r="L80" s="30" t="s">
+      <c r="M80" s="29"/>
+      <c r="N80" s="29"/>
+      <c r="O80" s="30"/>
+      <c r="P80" s="5" t="s">
         <v>411</v>
-      </c>
-      <c r="M80" s="28"/>
-      <c r="N80" s="28"/>
-      <c r="O80" s="29"/>
-      <c r="P80" s="5" t="s">
-        <v>412</v>
       </c>
       <c r="Q80" s="3"/>
       <c r="R80" s="3"/>
     </row>
     <row r="81" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B81" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="B81" s="27" t="s">
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="3" t="s">
+      <c r="I81" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="I81" s="4" t="s">
+      <c r="J81" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="J81" s="4" t="s">
+      <c r="K81" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="K81" s="4" t="s">
+      <c r="L81" s="31" t="s">
         <v>418</v>
       </c>
-      <c r="L81" s="30" t="s">
+      <c r="M81" s="29"/>
+      <c r="N81" s="29"/>
+      <c r="O81" s="30"/>
+      <c r="P81" s="5" t="s">
         <v>419</v>
-      </c>
-      <c r="M81" s="28"/>
-      <c r="N81" s="28"/>
-      <c r="O81" s="29"/>
-      <c r="P81" s="5" t="s">
-        <v>420</v>
       </c>
       <c r="Q81" s="3"/>
       <c r="R81" s="3"/>
     </row>
     <row r="82" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B82" s="28" t="s">
         <v>421</v>
       </c>
-      <c r="B82" s="27" t="s">
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="3" t="s">
+      <c r="I82" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="I82" s="4" t="s">
+      <c r="J82" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="J82" s="4" t="s">
+      <c r="K82" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="K82" s="4" t="s">
+      <c r="L82" s="31" t="s">
         <v>426</v>
       </c>
-      <c r="L82" s="30" t="s">
+      <c r="M82" s="29"/>
+      <c r="N82" s="29"/>
+      <c r="O82" s="30"/>
+      <c r="P82" s="5" t="s">
         <v>427</v>
-      </c>
-      <c r="M82" s="28"/>
-      <c r="N82" s="28"/>
-      <c r="O82" s="29"/>
-      <c r="P82" s="5" t="s">
-        <v>428</v>
       </c>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
     </row>
     <row r="83" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B83" s="28" t="s">
         <v>429</v>
       </c>
-      <c r="B83" s="27" t="s">
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="3" t="s">
+      <c r="I83" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="I83" s="4" t="s">
+      <c r="J83" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="J83" s="4" t="s">
+      <c r="K83" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="K83" s="4" t="s">
+      <c r="L83" s="31" t="s">
         <v>434</v>
       </c>
-      <c r="L83" s="30" t="s">
+      <c r="M83" s="29"/>
+      <c r="N83" s="29"/>
+      <c r="O83" s="30"/>
+      <c r="P83" s="5" t="s">
         <v>435</v>
-      </c>
-      <c r="M83" s="28"/>
-      <c r="N83" s="28"/>
-      <c r="O83" s="29"/>
-      <c r="P83" s="5" t="s">
-        <v>436</v>
       </c>
       <c r="Q83" s="3"/>
       <c r="R83" s="3"/>
     </row>
     <row r="84" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B84" s="28" t="s">
         <v>437</v>
       </c>
-      <c r="B84" s="27" t="s">
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="29"/>
-      <c r="H84" s="3" t="s">
+      <c r="I84" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="I84" s="4" t="s">
+      <c r="J84" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="J84" s="4" t="s">
+      <c r="K84" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="K84" s="4" t="s">
+      <c r="L84" s="31" t="s">
         <v>442</v>
       </c>
-      <c r="L84" s="30" t="s">
+      <c r="M84" s="29"/>
+      <c r="N84" s="29"/>
+      <c r="O84" s="30"/>
+      <c r="P84" s="5" t="s">
         <v>443</v>
-      </c>
-      <c r="M84" s="28"/>
-      <c r="N84" s="28"/>
-      <c r="O84" s="29"/>
-      <c r="P84" s="5" t="s">
-        <v>444</v>
       </c>
       <c r="Q84" s="3"/>
       <c r="R84" s="3"/>
     </row>
     <row r="85" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B85" s="28" t="s">
         <v>445</v>
       </c>
-      <c r="B85" s="27" t="s">
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="C85" s="28"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="3" t="s">
+      <c r="I85" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="I85" s="4" t="s">
+      <c r="J85" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="J85" s="4" t="s">
+      <c r="K85" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="K85" s="4" t="s">
+      <c r="L85" s="31" t="s">
         <v>450</v>
       </c>
-      <c r="L85" s="30" t="s">
+      <c r="M85" s="29"/>
+      <c r="N85" s="29"/>
+      <c r="O85" s="30"/>
+      <c r="P85" s="5" t="s">
         <v>451</v>
-      </c>
-      <c r="M85" s="28"/>
-      <c r="N85" s="28"/>
-      <c r="O85" s="29"/>
-      <c r="P85" s="5" t="s">
-        <v>452</v>
       </c>
       <c r="Q85" s="3"/>
       <c r="R85" s="3"/>
     </row>
     <row r="86" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B86" s="28" t="s">
         <v>453</v>
       </c>
-      <c r="B86" s="27" t="s">
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="29"/>
-      <c r="H86" s="3" t="s">
+      <c r="I86" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="I86" s="4" t="s">
+      <c r="J86" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="J86" s="4" t="s">
+      <c r="K86" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="K86" s="4" t="s">
+      <c r="L86" s="31" t="s">
         <v>458</v>
       </c>
-      <c r="L86" s="30" t="s">
+      <c r="M86" s="29"/>
+      <c r="N86" s="29"/>
+      <c r="O86" s="30"/>
+      <c r="P86" s="5" t="s">
         <v>459</v>
-      </c>
-      <c r="M86" s="28"/>
-      <c r="N86" s="28"/>
-      <c r="O86" s="29"/>
-      <c r="P86" s="5" t="s">
-        <v>460</v>
       </c>
       <c r="Q86" s="3"/>
       <c r="R86" s="3"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A88" s="31"/>
-      <c r="B88" s="31"/>
-      <c r="C88" s="31"/>
-      <c r="D88" s="32" t="s">
+      <c r="A88" s="32"/>
+      <c r="B88" s="32"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="33" t="s">
+        <v>460</v>
+      </c>
+      <c r="E88" s="32"/>
+      <c r="F88" s="32"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="32"/>
+      <c r="I88" s="32"/>
+      <c r="J88" s="32"/>
+      <c r="K88" s="32"/>
+      <c r="L88" s="32"/>
+      <c r="M88" s="32"/>
+      <c r="N88" s="32"/>
+      <c r="O88" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P88" s="32"/>
+      <c r="Q88" s="32"/>
+      <c r="R88" s="32"/>
+    </row>
+    <row r="89" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A89" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="31"/>
-      <c r="K88" s="31"/>
-      <c r="L88" s="31"/>
-      <c r="M88" s="31"/>
-      <c r="N88" s="31"/>
-      <c r="O88" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="P88" s="31"/>
-      <c r="Q88" s="31"/>
-      <c r="R88" s="31"/>
-    </row>
-    <row r="89" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A89" s="8" t="s">
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="B89" s="9"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="10" t="s">
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="12"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="13"/>
+      <c r="O89" s="5" t="s">
         <v>463</v>
-      </c>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="11"/>
-      <c r="J89" s="11"/>
-      <c r="K89" s="11"/>
-      <c r="L89" s="11"/>
-      <c r="M89" s="11"/>
-      <c r="N89" s="12"/>
-      <c r="O89" s="5" t="s">
-        <v>464</v>
       </c>
       <c r="P89" s="6"/>
       <c r="Q89" s="6"/>
       <c r="R89" s="6"/>
     </row>
     <row r="90" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A90" s="8" t="s">
+      <c r="A90" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="B90" s="9"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="13" t="s">
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="15"/>
+      <c r="L90" s="15"/>
+      <c r="M90" s="15"/>
+      <c r="N90" s="16"/>
+      <c r="O90" s="5" t="s">
         <v>466</v>
-      </c>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
-      <c r="J90" s="14"/>
-      <c r="K90" s="14"/>
-      <c r="L90" s="14"/>
-      <c r="M90" s="14"/>
-      <c r="N90" s="15"/>
-      <c r="O90" s="5" t="s">
-        <v>467</v>
       </c>
       <c r="P90" s="6"/>
       <c r="Q90" s="6"/>
